--- a/biology/Zoologie/Hyalinobatrachinae/Hyalinobatrachinae.xlsx
+++ b/biology/Zoologie/Hyalinobatrachinae/Hyalinobatrachinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hyalinobatrachinae sont une sous-famille d'amphibiens de la famille des Centrolenidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hyalinobatrachinae sont une sous-famille d'amphibiens de la famille des Centrolenidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des deux genres de cette sous-famille se rencontrent en Amérique centrale et en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des deux genres de cette sous-famille se rencontrent en Amérique centrale et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (22 mai 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (22 mai 2013) :
 Celsiella Guayasamin, Castroviejo-Fisher, Trueb, Ayarzagüena, Rada, &amp; Vilà, 2009
 Hyalinobatrachium Ruiz-Carranza &amp; Lynch, 1991</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La sous-famille des Hyalinobatrachinae a été créée en 2009 par Juan M. Guayasamin, Santiago Castroviejo-Fisher (d), Linda Trueb, José Ayarzagüena, Marco Rada (d) et Carles Vilà (d)[1]
-Hyalinobatrachinae a pour synonyme[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La sous-famille des Hyalinobatrachinae a été créée en 2009 par Juan M. Guayasamin, Santiago Castroviejo-Fisher (d), Linda Trueb, José Ayarzagüena, Marco Rada (d) et Carles Vilà (d)
+Hyalinobatrachinae a pour synonyme :
 Hyalinobatrachiinae Guayasamin, Castroviejo-Fisher, Trueb, Ayarzagüena, Rada &amp; Vilà, 2009</t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Guayasamin, Castroviejo-Fisher, Trueb, Ayarzagüena, Rada &amp; Vilà, 2009, « Phylogenetic systematics of Glassfrogs (Amphibia: Centrolenidae) and their sister taxon Allophryne ruthveni », Zootaxa, n. 2100, p. 1–97 (lire en lignel).</t>
         </is>
